--- a/FonduriInvestitii/data/funds.xlsx
+++ b/FonduriInvestitii/data/funds.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="INGDXCH" sheetId="1" r:id="rId1"/>
     <sheet name="INGROME" sheetId="3" r:id="rId2"/>
-    <sheet name="Graphs" sheetId="2" r:id="rId3"/>
+    <sheet name="Corelations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="INGROME_1" localSheetId="1">INGROME!$A$1:$B$257</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>open-pos1</t>
+  </si>
+  <si>
+    <t>open-pos2</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>sold</t>
   </si>
 </sst>
 </file>
@@ -236,8 +245,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.830662429057456E-2"/>
           <c:y val="3.9274376417233602E-2"/>
-          <c:w val="0.82160999603021989"/>
-          <c:h val="0.7334695046291877"/>
+          <c:w val="0.86777357340725858"/>
+          <c:h val="0.82980868720889656"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -246,6 +255,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>INGDXCH!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28800">
               <a:solidFill>
@@ -286,504 +306,1272 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>INGDXCH!$A$100:$A$180</c:f>
+              <c:f>INGDXCH!$A$2:$A$210</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="209"/>
                 <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42690</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42695</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42703</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42706</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42709</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42710</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42711</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42712</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42713</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42716</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42717</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42718</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42720</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42723</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42724</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42725</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42726</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42727</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42731</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42732</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42733</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42734</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42737</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>42815</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="99">
                   <c:v>42816</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="100">
                   <c:v>42817</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="101">
                   <c:v>42818</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="102">
                   <c:v>42821</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="103">
                   <c:v>42822</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="104">
                   <c:v>42823</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="105">
                   <c:v>42824</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="106">
                   <c:v>42825</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="107">
                   <c:v>42828</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="108">
                   <c:v>42829</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="109">
                   <c:v>42830</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="110">
                   <c:v>42831</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="111">
                   <c:v>42832</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="112">
                   <c:v>42835</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="113">
                   <c:v>42836</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="114">
                   <c:v>42837</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="115">
                   <c:v>42838</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="116">
                   <c:v>42843</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="117">
                   <c:v>42844</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="118">
                   <c:v>42845</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="119">
                   <c:v>42846</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="120">
                   <c:v>42849</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="121">
                   <c:v>42850</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="122">
                   <c:v>42851</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="123">
                   <c:v>42852</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="124">
                   <c:v>42853</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="125">
                   <c:v>42857</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="126">
                   <c:v>42858</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="127">
                   <c:v>42859</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="128">
                   <c:v>42860</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="129">
                   <c:v>42863</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="130">
                   <c:v>42864</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="131">
                   <c:v>42865</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="132">
                   <c:v>42866</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="133">
                   <c:v>42867</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="134">
                   <c:v>42870</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="135">
                   <c:v>42871</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="136">
                   <c:v>42872</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="137">
                   <c:v>42873</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="138">
                   <c:v>42874</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="139">
                   <c:v>42877</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="140">
                   <c:v>42878</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="141">
                   <c:v>42879</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="142">
                   <c:v>42881</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="143">
                   <c:v>42884</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="144">
                   <c:v>42885</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="145">
                   <c:v>42886</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="146">
                   <c:v>42887</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="147">
                   <c:v>42888</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="148">
                   <c:v>42892</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="149">
                   <c:v>42893</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="150">
                   <c:v>42894</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="151">
                   <c:v>42895</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="152">
                   <c:v>42898</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="153">
                   <c:v>42899</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="154">
                   <c:v>42900</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="155">
                   <c:v>42910</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="156">
                   <c:v>42911</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="157">
                   <c:v>42912</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="158">
                   <c:v>42913</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="159">
                   <c:v>42914</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="160">
                   <c:v>42915</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="161">
                   <c:v>42916</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="162">
                   <c:v>42917</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="163">
                   <c:v>42918</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="164">
                   <c:v>42919</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="165">
                   <c:v>42920</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="166">
                   <c:v>42921</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="167">
                   <c:v>42922</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="168">
                   <c:v>42923</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="169">
                   <c:v>42924</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="170">
                   <c:v>42925</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="171">
                   <c:v>42926</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="172">
                   <c:v>42927</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="173">
                   <c:v>42928</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="174">
                   <c:v>42929</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="175">
                   <c:v>42930</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="176">
                   <c:v>42933</c:v>
                 </c:pt>
-                <c:pt idx="79" formatCode="m/d/yyyy">
+                <c:pt idx="177" formatCode="m/d/yyyy">
                   <c:v>42934</c:v>
                 </c:pt>
-                <c:pt idx="80" formatCode="m/d/yyyy">
+                <c:pt idx="178" formatCode="m/d/yyyy">
                   <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="m/d/yyyy">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="m/d/yyyy">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="m/d/yyyy">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="m/d/yyyy">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="m/d/yyyy">
+                  <c:v>42942</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="m/d/yyyy">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="m/d/yyyy">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="m/d/yyyy">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="m/d/yyyy">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="m/d/yyyy">
+                  <c:v>42949</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="m/d/yyyy">
+                  <c:v>42950</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="m/d/yyyy">
+                  <c:v>42951</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="m/d/yyyy">
+                  <c:v>42954</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="m/d/yyyy">
+                  <c:v>42955</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="m/d/yyyy">
+                  <c:v>42956</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="m/d/yyyy">
+                  <c:v>42957</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="m/d/yyyy">
+                  <c:v>42958</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="m/d/yyyy">
+                  <c:v>42961</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="m/d/yyyy">
+                  <c:v>42963</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="m/d/yyyy">
+                  <c:v>42964</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="m/d/yyyy">
+                  <c:v>42965</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="m/d/yyyy">
+                  <c:v>42968</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="m/d/yyyy">
+                  <c:v>42969</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="m/d/yyyy">
+                  <c:v>42970</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="m/d/yyyy">
+                  <c:v>42972</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="m/d/yyyy">
+                  <c:v>42975</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="m/d/yyyy">
+                  <c:v>42976</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="m/d/yyyy">
+                  <c:v>42977</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="m/d/yyyy">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="m/d/yyyy">
+                  <c:v>42979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>INGDXCH!$B$100:$B$180</c:f>
+              <c:f>INGDXCH!$B$2:$B$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="209"/>
                 <c:pt idx="0">
+                  <c:v>991.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>990.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>987.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>997.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>997.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1003.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1006.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1003.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1007.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1008.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1009.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1011.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1011.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1012.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1016.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1017.72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1018.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1018.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1016.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1015.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1016.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1014.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1013.69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1013.68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1015.47</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1024.51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1030.53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1034.58</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1031.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1035.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1031.54</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1037.71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1039.28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1039.72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1042.79</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1040.93</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1037.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1037.23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1040.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1040.23</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1038.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1037.1500000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1035.93</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1044.94</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1051.24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1047.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1048.6500000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1048.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1045.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1051.53</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1042.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1044.27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1042.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1039.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1041.67</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1042.32</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1041.22</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1038.04</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1040.03</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1045.8699999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1046.77</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1045.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1041.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1038.04</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1038.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1036.68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1040.22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1042.27</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1047.0899999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1045.83</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1051.42</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1056.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1059.27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1059.55</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1059.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1061.3900000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1062.8699999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1070.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1073.55</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1072.54</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1069.49</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1069.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1066.72</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1073.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1073.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1070.33</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1067.03</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1064.57</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1062.17</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1058.44</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1057.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1058.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1059.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1063.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1063.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1062.77</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1061.3800000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1055.45</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="99">
                   <c:v>1053.93</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="100">
                   <c:v>1057.92</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="101">
                   <c:v>1056.6099999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="102">
                   <c:v>1051.48</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="103">
                   <c:v>1056.44</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="104">
                   <c:v>1061.1300000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="105">
                   <c:v>1063.24</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="106">
                   <c:v>1063.47</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="107">
                   <c:v>1065.75</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="108">
                   <c:v>1065.9000000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="109">
                   <c:v>1067.74</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="110">
                   <c:v>1069.3499999999999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="111">
                   <c:v>1072.23</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="112">
                   <c:v>1073.57</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="113">
                   <c:v>1072.1199999999999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="114">
                   <c:v>1071.6600000000001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="115">
                   <c:v>1069.8</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="116">
                   <c:v>1067.5</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="117">
                   <c:v>1065.2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="118">
                   <c:v>1065.8699999999999</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="119">
                   <c:v>1067.45</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="120">
                   <c:v>1070.46</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="121">
                   <c:v>1069.3699999999999</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="122">
                   <c:v>1070.8499999999999</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="123">
                   <c:v>1070.46</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="124">
                   <c:v>1068.47</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="125">
                   <c:v>1069.95</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="126">
                   <c:v>1068.07</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="127">
                   <c:v>1067.77</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="128">
                   <c:v>1069.43</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="129">
                   <c:v>1072.28</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="130">
                   <c:v>1075.21</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="131">
                   <c:v>1077.42</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="132">
                   <c:v>1077.26</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="133">
                   <c:v>1076.81</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="134">
                   <c:v>1078.53</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="135">
                   <c:v>1073.3499999999999</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="136">
                   <c:v>1064.92</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="137">
                   <c:v>1063.03</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="138">
                   <c:v>1065.28</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="139">
                   <c:v>1066.44</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="140">
                   <c:v>1067.6099999999999</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="141">
                   <c:v>1072.77</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="142">
                   <c:v>1072.58</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="143">
                   <c:v>1072.2</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="144">
                   <c:v>1072.24</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="145">
                   <c:v>1070.01</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="146">
                   <c:v>1073.8800000000001</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="147">
                   <c:v>1076.43</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="148">
                   <c:v>1073.4100000000001</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="149">
                   <c:v>1073.4000000000001</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="150">
                   <c:v>1075.22</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="151">
                   <c:v>1077</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="152">
                   <c:v>1073.7</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="153">
                   <c:v>1077.5899999999999</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="154">
                   <c:v>1074.9100000000001</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="155">
                   <c:v>1073.55</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="156">
                   <c:v>1074.42</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="157">
                   <c:v>1077.96</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="158">
                   <c:v>1075.32</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="159">
                   <c:v>1074.08</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="160">
                   <c:v>1074.1199999999999</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="161">
                   <c:v>1074.74</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="162">
                   <c:v>1069.81</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="163">
                   <c:v>1067.1600000000001</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="164">
                   <c:v>1056.06</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="165">
                   <c:v>1056.18</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="166">
                   <c:v>1058.32</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="167">
                   <c:v>1058.95</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="168">
                   <c:v>1061.93</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="169">
                   <c:v>1054.69</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="170">
                   <c:v>1056.43</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="171">
                   <c:v>1058.74</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="172">
                   <c:v>1057.75</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="173">
                   <c:v>1064.6400000000001</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="174">
                   <c:v>1067.3599999999999</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="175">
                   <c:v>1068.6199999999999</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="176">
                   <c:v>1069.68</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="177">
                   <c:v>1065.6400000000001</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="178">
                   <c:v>1070.54</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1069.68</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1066.21</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1065.82</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1065.69</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1067.92</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1067.77</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1063.56</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1062.54</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1064.58</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1061.82</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1062.01</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1066.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1065.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1069.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1064.94</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1058.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1054.05</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1059.56</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1061.69</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1057.75</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1055.33</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1054.02</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1059.01</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1057.44</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1057.7</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1054.96</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1049.29</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1054.46</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1059.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,11 +1595,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-984673584"/>
-        <c:axId val="-988260880"/>
+        <c:axId val="1990266880"/>
+        <c:axId val="1990262528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-984673584"/>
+        <c:axId val="1990266880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,14 +1636,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-988260880"/>
+        <c:crossAx val="1990262528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-988260880"/>
+        <c:axId val="1990262528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +1689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-984673584"/>
+        <c:crossAx val="1990266880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -981,9 +1769,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7805348050806806E-2"/>
+          <c:y val="7.0799116997792497E-2"/>
+          <c:w val="0.94962681531919424"/>
+          <c:h val="0.8442855503989154"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -998,850 +1796,602 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="82"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="85"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>INGROME!$A$120:$A$257</c:f>
+              <c:f>INGROME!$A$200:$A$287</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="138"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
-                  <c:v>42738</c:v>
+                  <c:v>42852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42739</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42740</c:v>
+                  <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42741</c:v>
+                  <c:v>42858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42744</c:v>
+                  <c:v>42859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42745</c:v>
+                  <c:v>42860</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42746</c:v>
+                  <c:v>42863</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42747</c:v>
+                  <c:v>42864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42748</c:v>
+                  <c:v>42865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42751</c:v>
+                  <c:v>42866</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42752</c:v>
+                  <c:v>42867</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42753</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42754</c:v>
+                  <c:v>42871</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42755</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42758</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42759</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42760</c:v>
+                  <c:v>42877</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42761</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42762</c:v>
+                  <c:v>42879</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42765</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42766</c:v>
+                  <c:v>42881</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42767</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42768</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42769</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42772</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42773</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42774</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42775</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42776</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42779</c:v>
+                  <c:v>42895</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42780</c:v>
+                  <c:v>42898</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42781</c:v>
+                  <c:v>42899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42782</c:v>
+                  <c:v>42900</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42783</c:v>
+                  <c:v>42901</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42786</c:v>
+                  <c:v>42902</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42787</c:v>
+                  <c:v>42905</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42788</c:v>
+                  <c:v>42906</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42789</c:v>
+                  <c:v>42907</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42790</c:v>
+                  <c:v>42908</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42793</c:v>
+                  <c:v>42909</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42794</c:v>
+                  <c:v>42912</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42795</c:v>
+                  <c:v>42913</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42796</c:v>
+                  <c:v>42914</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42797</c:v>
+                  <c:v>42915</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42800</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42801</c:v>
+                  <c:v>42919</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42802</c:v>
+                  <c:v>42920</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42803</c:v>
+                  <c:v>42921</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42804</c:v>
+                  <c:v>42922</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42807</c:v>
+                  <c:v>42923</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42808</c:v>
+                  <c:v>42926</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42809</c:v>
+                  <c:v>42927</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42810</c:v>
+                  <c:v>42928</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42811</c:v>
+                  <c:v>42929</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42814</c:v>
+                  <c:v>42930</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42815</c:v>
+                  <c:v>42933</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42816</c:v>
+                  <c:v>42934</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42817</c:v>
+                  <c:v>42935</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42818</c:v>
+                  <c:v>42936</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42821</c:v>
+                  <c:v>42937</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42822</c:v>
+                  <c:v>42940</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42823</c:v>
+                  <c:v>42941</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42824</c:v>
+                  <c:v>42942</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42825</c:v>
+                  <c:v>42943</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42828</c:v>
+                  <c:v>42944</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42829</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42830</c:v>
+                  <c:v>42948</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42831</c:v>
+                  <c:v>42949</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42832</c:v>
+                  <c:v>42950</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42835</c:v>
+                  <c:v>42951</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42836</c:v>
+                  <c:v>42954</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42837</c:v>
+                  <c:v>42955</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42838</c:v>
+                  <c:v>42956</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42843</c:v>
+                  <c:v>42957</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42844</c:v>
+                  <c:v>42958</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42845</c:v>
+                  <c:v>42961</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42846</c:v>
+                  <c:v>42963</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42849</c:v>
+                  <c:v>42964</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42850</c:v>
+                  <c:v>42965</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42851</c:v>
+                  <c:v>42968</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42852</c:v>
+                  <c:v>42969</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42853</c:v>
+                  <c:v>42970</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42857</c:v>
+                  <c:v>42972</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42858</c:v>
+                  <c:v>42975</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>42859</c:v>
+                  <c:v>42976</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>42860</c:v>
+                  <c:v>42977</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>42863</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>42864</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>42865</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>42866</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>42867</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42870</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>42871</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>42872</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>42873</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>42874</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>42877</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>42878</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>42879</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>42880</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>42884</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>42885</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>42886</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>42888</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>42892</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>42893</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>42894</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>42895</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>42898</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>42899</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>42900</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>42901</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>42902</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>42905</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>42906</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>42907</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>42908</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>42909</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>42912</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>42914</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>42915</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>42919</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>42920</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>42921</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>42922</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>42923</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>42926</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>42927</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>42928</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>42929</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>42930</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>42933</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>42934</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>42935</c:v>
+                  <c:v>42979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>INGROME!$B$120:$B$257</c:f>
+              <c:f>INGROME!$B$200:$B$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="138"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
-                  <c:v>1015.17</c:v>
+                  <c:v>1148.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1021.07</c:v>
+                  <c:v>1154.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1020.4</c:v>
+                  <c:v>1156.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1022.9</c:v>
+                  <c:v>1154.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1024.6500000000001</c:v>
+                  <c:v>1155.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024.8800000000001</c:v>
+                  <c:v>1163.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1025.6199999999999</c:v>
+                  <c:v>1165.8599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1018.37</c:v>
+                  <c:v>1174.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1015.81</c:v>
+                  <c:v>1173.68</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1016.91</c:v>
+                  <c:v>1177.3399999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1015.74</c:v>
+                  <c:v>1183.3699999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1015.4</c:v>
+                  <c:v>1191.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1019.66</c:v>
+                  <c:v>1187.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1023.99</c:v>
+                  <c:v>1183.01</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1020.91</c:v>
+                  <c:v>1177.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1023.04</c:v>
+                  <c:v>1187.1199999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1041.29</c:v>
+                  <c:v>1193.98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1042.43</c:v>
+                  <c:v>1187.8800000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1051.8699999999999</c:v>
+                  <c:v>1192.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1046.1199999999999</c:v>
+                  <c:v>1200.9100000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1050.1500000000001</c:v>
+                  <c:v>1202.74</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1058.05</c:v>
+                  <c:v>1204.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1051.5999999999999</c:v>
+                  <c:v>1203.6300000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1054.8800000000001</c:v>
+                  <c:v>1209.68</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1062.76</c:v>
+                  <c:v>1209.71</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1064.25</c:v>
+                  <c:v>1213.33</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1063.2</c:v>
+                  <c:v>1210.3399999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1071.3900000000001</c:v>
+                  <c:v>1212.55</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1080.68</c:v>
+                  <c:v>1213.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1080.71</c:v>
+                  <c:v>1207.8800000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1077.1400000000001</c:v>
+                  <c:v>1197.3499999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1084.77</c:v>
+                  <c:v>1199.71</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1090.1600000000001</c:v>
+                  <c:v>1203.79</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1089.45</c:v>
+                  <c:v>1194.25</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1095.55</c:v>
+                  <c:v>1199.57</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1110.6500000000001</c:v>
+                  <c:v>1200.03</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1119.8900000000001</c:v>
+                  <c:v>1193.03</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1118.43</c:v>
+                  <c:v>1193.01</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1104.6099999999999</c:v>
+                  <c:v>1185.98</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1106.53</c:v>
+                  <c:v>1186.19</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1100.47</c:v>
+                  <c:v>1189.17</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1117.21</c:v>
+                  <c:v>1184.45</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1110.6600000000001</c:v>
+                  <c:v>1177.8699999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1108.77</c:v>
+                  <c:v>1156.1099999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1107.8900000000001</c:v>
+                  <c:v>1154.32</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1103.0999999999999</c:v>
+                  <c:v>1156.67</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1102.73</c:v>
+                  <c:v>1168.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1098.6600000000001</c:v>
+                  <c:v>1188.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1100.5999999999999</c:v>
+                  <c:v>1184.8399999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1105.51</c:v>
+                  <c:v>1179.5899999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1105.1300000000001</c:v>
+                  <c:v>1185.57</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1111.1600000000001</c:v>
+                  <c:v>1188</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1118.6400000000001</c:v>
+                  <c:v>1195.58</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1121.25</c:v>
+                  <c:v>1198.56</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1119.7</c:v>
+                  <c:v>1197.74</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1116.6099999999999</c:v>
+                  <c:v>1202.97</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1110.49</c:v>
+                  <c:v>1207.58</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1113.5</c:v>
+                  <c:v>1212.52</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1114.33</c:v>
+                  <c:v>1217.8900000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1108.4100000000001</c:v>
+                  <c:v>1214.81</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1113.22</c:v>
+                  <c:v>1211.95</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1111.1500000000001</c:v>
+                  <c:v>1212.25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1115.17</c:v>
+                  <c:v>1214.6099999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1113.1600000000001</c:v>
+                  <c:v>1214</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1123.33</c:v>
+                  <c:v>1211.72</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1124.8499999999999</c:v>
+                  <c:v>1210.1600000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1129.8699999999999</c:v>
+                  <c:v>1213.43</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1132.5899999999999</c:v>
+                  <c:v>1212.1099999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1135.1199999999999</c:v>
+                  <c:v>1219.6500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1133.45</c:v>
+                  <c:v>1220.77</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1127.55</c:v>
+                  <c:v>1226.56</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1127.68</c:v>
+                  <c:v>1239.32</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1132.6300000000001</c:v>
+                  <c:v>1229.69</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1130.77</c:v>
+                  <c:v>1220.52</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1131.8499999999999</c:v>
+                  <c:v>1215.18</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1134.23</c:v>
+                  <c:v>1220.1300000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1133.8499999999999</c:v>
+                  <c:v>1219.04</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1145.51</c:v>
+                  <c:v>1221.31</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1150.9100000000001</c:v>
+                  <c:v>1217.28</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1153.94</c:v>
+                  <c:v>1220.26</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1148.71</c:v>
+                  <c:v>1224.55</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1154.07</c:v>
+                  <c:v>1225.29</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1156.94</c:v>
+                  <c:v>1240.9100000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1154.5999999999999</c:v>
+                  <c:v>1245.72</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1155.6199999999999</c:v>
+                  <c:v>1232.8699999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1163.51</c:v>
+                  <c:v>1231.1600000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1165.8599999999999</c:v>
+                  <c:v>1217.52</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1174.73</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1173.68</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1177.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1183.3699999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1191.22</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1187.45</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1183.01</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1177.04</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1187.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1193.98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1187.8800000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1192.73</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1200.9100000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1202.74</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1204.2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1203.6300000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1209.68</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1209.71</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1213.33</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1210.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1212.55</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1213.25</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1207.8800000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1197.3499999999999</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1199.71</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1203.79</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1194.25</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1199.57</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1200.03</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1193.03</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1193.01</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1185.98</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1186.19</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1189.17</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1184.45</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1177.8699999999999</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1156.1099999999999</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1154.32</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1156.67</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1168.9000000000001</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1188.6199999999999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1184.8399999999999</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1179.5899999999999</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1185.57</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1188</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1195.58</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1198.56</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1197.74</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1202.97</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1207.58</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1212.52</c:v>
+                  <c:v>1222.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,12 +2406,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-896254624"/>
-        <c:axId val="-896269856"/>
+        <c:axId val="1990264704"/>
+        <c:axId val="1990269056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-896254624"/>
+        <c:axId val="1990264704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1904,17 +2455,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-896269856"/>
+        <c:crossAx val="1990269056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-896269856"/>
+        <c:axId val="1990269056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="900"/>
+          <c:min val="1070"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1963,7 +2514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-896254624"/>
+        <c:crossAx val="1990264704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,6 +2528,494 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1">
+          <a:lumMod val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:bevel/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>INGDXCH!$A$141:$A$183</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42910</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42911</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42922</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42923</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42933</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="m/d/yyyy">
+                  <c:v>42934</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="m/d/yyyy">
+                  <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="m/d/yyyy">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="m/d/yyyy">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="m/d/yyyy">
+                  <c:v>42940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>INGDXCH!$B$141:$B$183</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1066.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1067.6099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1072.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1072.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1072.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1072.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1070.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1073.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1076.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1073.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1073.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1075.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1073.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1077.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1074.9100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1073.55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1074.42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1077.96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1075.32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1074.08</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1074.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1074.74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1069.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1067.1600000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1056.06</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1056.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1058.32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1058.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1061.93</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1054.69</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1056.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1058.74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1057.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1064.6400000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1067.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1068.6199999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1069.68</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1065.6400000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1070.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1069.68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1066.21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1065.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1990267968"/>
+        <c:axId val="1990268512"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1990267968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990268512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1990268512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990267968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2013,6 +3052,43 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2568,18 +3644,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>182</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -2607,16 +4186,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>709612</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2905,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183:D185"/>
+    <sheetView topLeftCell="F148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA186" sqref="AA186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2917,11 +4531,12 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125"/>
     <col min="4" max="4" width="11.5703125"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="1025" width="11.5703125"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2935,10 +4550,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42676</v>
       </c>
@@ -2946,7 +4564,7 @@
         <v>991.83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42677</v>
       </c>
@@ -2958,7 +4576,7 @@
         <v>-0.14821088291340526</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42678</v>
       </c>
@@ -2970,7 +4588,7 @@
         <v>-0.3069590855850361</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42681</v>
       </c>
@@ -2982,7 +4600,7 @@
         <v>1.0786776323785578</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42682</v>
       </c>
@@ -2994,7 +4612,7 @@
         <v>-3.0061023878480135E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42683</v>
       </c>
@@ -3006,7 +4624,7 @@
         <v>0.60741527759680647</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42684</v>
       </c>
@@ -3018,7 +4636,7 @@
         <v>0.24110069440984716</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42685</v>
       </c>
@@ -3030,7 +4648,7 @@
         <v>-0.27033742483725365</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42688</v>
       </c>
@@ -3042,7 +4660,7 @@
         <v>0.4135814157440072</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42689</v>
       </c>
@@ -3054,7 +4672,7 @@
         <v>0.13199944421285925</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42690</v>
       </c>
@@ -3066,7 +4684,7 @@
         <v>5.1540771723937895E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42691</v>
       </c>
@@ -3078,7 +4696,7 @@
         <v>0.15850529506751562</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42692</v>
       </c>
@@ -3090,7 +4708,7 @@
         <v>5.242178768186629E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42695</v>
       </c>
@@ -3102,7 +4720,7 @@
         <v>0.13049151805133161</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42696</v>
       </c>
@@ -4842,7 +6460,7 @@
         <v>-0.24490704664366952</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>42914</v>
       </c>
@@ -4854,7 +6472,7 @@
         <v>-0.11531451102927585</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>42915</v>
       </c>
@@ -4866,7 +6484,7 @@
         <v>3.7241173841765624E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>42916</v>
       </c>
@@ -4874,11 +6492,11 @@
         <v>1074.74</v>
       </c>
       <c r="C163">
-        <f t="shared" ref="C163:C180" si="5">(B163-B162)*100/B162</f>
+        <f t="shared" ref="C163:C210" si="5">(B163-B162)*100/B162</f>
         <v>5.7721669832059577E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>42917</v>
       </c>
@@ -4890,7 +6508,7 @@
         <v>-0.45871559633028114</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>42918</v>
       </c>
@@ -4902,7 +6520,7 @@
         <v>-0.24770753685232552</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>42919</v>
       </c>
@@ -4914,7 +6532,7 @@
         <v>-1.0401439334308009</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>42920</v>
       </c>
@@ -4926,7 +6544,7 @@
         <v>1.1362990739173745E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>42921</v>
       </c>
@@ -4938,7 +6556,7 @@
         <v>0.20261697816658833</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>42922</v>
       </c>
@@ -4950,7 +6568,7 @@
         <v>5.9528309018076687E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>42923</v>
       </c>
@@ -4962,7 +6580,7 @@
         <v>0.28141083148401891</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>42924</v>
       </c>
@@ -4973,12 +6591,12 @@
         <f t="shared" si="5"/>
         <v>-0.68177751829216693</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <f>B171/B171</f>
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>42925</v>
       </c>
@@ -4989,12 +6607,12 @@
         <f t="shared" si="5"/>
         <v>0.16497738672026938</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <f>B172-B171</f>
         <v>1.7400000000000091</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>42926</v>
       </c>
@@ -5005,12 +6623,12 @@
         <f t="shared" si="5"/>
         <v>0.21866096191891041</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <f>B173-B171</f>
         <v>4.0499999999999545</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>42927</v>
       </c>
@@ -5021,12 +6639,12 @@
         <f t="shared" si="5"/>
         <v>-9.3507376693051092E-2</v>
       </c>
-      <c r="E174">
+      <c r="F174">
         <f>B174-B171</f>
         <v>3.0599999999999454</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>42928</v>
       </c>
@@ -5037,12 +6655,12 @@
         <f t="shared" si="5"/>
         <v>0.65138265185536282</v>
       </c>
-      <c r="E175">
+      <c r="F175">
         <f>B175-B171</f>
         <v>9.9500000000000455</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>42929</v>
       </c>
@@ -5056,12 +6674,12 @@
       <c r="D176">
         <v>2000</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <f>B176-B171</f>
         <v>12.669999999999845</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>42930</v>
       </c>
@@ -5076,12 +6694,12 @@
         <f>B177/B176*D176</f>
         <v>2002.360965372508</v>
       </c>
-      <c r="E177">
+      <c r="F177">
         <f>B177-B171</f>
         <v>13.929999999999836</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>42933</v>
       </c>
@@ -5093,15 +6711,15 @@
         <v>9.9193352173847851E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" ref="D178:D180" si="6">B178/B177*D177</f>
+        <f t="shared" ref="D178:D181" si="6">B178/B177*D177</f>
         <v>2004.3471743366817</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <f>B178-B171</f>
         <v>14.990000000000009</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>42934</v>
       </c>
@@ -5116,12 +6734,12 @@
         <f t="shared" si="6"/>
         <v>1996.7770948883233</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <f>B179-B171</f>
         <v>10.950000000000045</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>42935</v>
       </c>
@@ -5136,47 +6754,790 @@
         <f t="shared" si="6"/>
         <v>2005.9586268925202</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <f>B180-B171</f>
         <v>15.849999999999909</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C183" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>42936</v>
+      </c>
+      <c r="B181">
+        <v>1069.68</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="5"/>
+        <v>-8.0333289741616382E-2</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="6"/>
+        <v>2004.3471743366817</v>
+      </c>
+      <c r="F181">
+        <f>B181-B171</f>
+        <v>14.990000000000009</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>42937</v>
+      </c>
+      <c r="B182">
+        <v>1066.21</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="5"/>
+        <v>-0.324396081070977</v>
+      </c>
+      <c r="D182">
+        <f t="shared" ref="D182:D210" si="7">B182/B181*D181</f>
+        <v>1997.8451506520767</v>
+      </c>
+      <c r="F182">
+        <f>B182-B172</f>
+        <v>9.7799999999999727</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>42940</v>
+      </c>
+      <c r="B183">
+        <v>1065.82</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="5"/>
+        <v>-3.6578160024769983E-2</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="7"/>
+        <v>1997.114375655824</v>
+      </c>
+      <c r="E183">
+        <v>1000</v>
+      </c>
+      <c r="F183">
+        <f>B183-B171</f>
+        <v>11.129999999999882</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>42941</v>
+      </c>
+      <c r="B184">
+        <v>1065.69</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="5"/>
+        <v>-1.2197181512814712E-2</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="7"/>
+        <v>1996.8707839904066</v>
+      </c>
+      <c r="E184">
+        <f t="shared" ref="E184:E210" si="8">B184/B183*E183</f>
+        <v>999.87802818487182</v>
+      </c>
+      <c r="F184">
+        <f>B184-B171</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>42942</v>
+      </c>
+      <c r="B185">
+        <v>1067.92</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="5"/>
+        <v>0.20925409828374275</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="7"/>
+        <v>2001.0493179433372</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="8"/>
+        <v>1001.9703139366873</v>
+      </c>
+      <c r="F185">
+        <f>B185-B171</f>
+        <v>13.230000000000018</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>42943</v>
+      </c>
+      <c r="B186">
+        <v>1067.77</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="5"/>
+        <v>-1.404599595476168E-2</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="7"/>
+        <v>2000.7682506370861</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="8"/>
+        <v>1001.8295772269238</v>
+      </c>
+      <c r="F186">
+        <f>B186-B171</f>
+        <v>13.079999999999927</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>42944</v>
+      </c>
+      <c r="B187">
+        <v>1063.56</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="5"/>
+        <v>-0.39427966696948186</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="7"/>
+        <v>1992.8796282416431</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="8"/>
+        <v>997.87956690623173</v>
+      </c>
+      <c r="F187">
+        <f>B187-B171</f>
+        <v>8.8699999999998909</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>42947</v>
+      </c>
+      <c r="B188">
+        <v>1062.54</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="5"/>
+        <v>-9.5904321335889081E-2</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="7"/>
+        <v>1990.9683705591367</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="8"/>
+        <v>996.9225572798407</v>
+      </c>
+      <c r="F188">
+        <f>B188-B172</f>
+        <v>6.1099999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>42948</v>
+      </c>
+      <c r="B189">
+        <v>1064.58</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="5"/>
+        <v>0.19199277203681403</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="7"/>
+        <v>1994.7908859241493</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="8"/>
+        <v>998.83657653262253</v>
+      </c>
+      <c r="F189">
+        <f>B189-B171</f>
+        <v>9.8899999999998727</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>42949</v>
+      </c>
+      <c r="B190">
+        <v>1061.82</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="5"/>
+        <v>-0.25925717184241587</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="7"/>
+        <v>1989.619247489132</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="8"/>
+        <v>996.24702107297639</v>
+      </c>
+      <c r="F190">
+        <f t="shared" ref="F190:F192" si="9">B190-B172</f>
+        <v>5.3899999999998727</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>42950</v>
+      </c>
+      <c r="B191">
+        <v>1062.01</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="5"/>
+        <v>1.7893804976366483E-2</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="7"/>
+        <v>1989.97526607705</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="8"/>
+        <v>996.42528757201001</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="9"/>
+        <v>3.2699999999999818</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>42951</v>
+      </c>
+      <c r="B192">
+        <v>1066.4100000000001</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="5"/>
+        <v>0.4143087164904371</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="7"/>
+        <v>1998.2199070604111</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="8"/>
+        <v>1000.5535643917358</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="9"/>
+        <v>8.6600000000000819</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>42954</v>
+      </c>
+      <c r="B193">
+        <v>1065.8599999999999</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="5"/>
+        <v>-5.1574910212786998E-2</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="7"/>
+        <v>1997.1893269374907</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="8"/>
+        <v>1000.0375297892699</v>
+      </c>
+      <c r="F193">
+        <f>B193-B175</f>
+        <v>1.2199999999997999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>42955</v>
+      </c>
+      <c r="B194">
+        <v>1069.1400000000001</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="5"/>
+        <v>0.30773272287169051</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="7"/>
+        <v>2003.3353320341785</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="8"/>
+        <v>1003.1149725094293</v>
+      </c>
+      <c r="F194">
+        <f t="shared" ref="F194:F210" si="10">B194-B176</f>
+        <v>1.7800000000002001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>42956</v>
+      </c>
+      <c r="B195">
+        <v>1064.94</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="5"/>
+        <v>-0.39283910432684638</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="7"/>
+        <v>1995.4654474591521</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="8"/>
+        <v>999.1743446360548</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="10"/>
+        <v>-3.6799999999998363</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>42957</v>
+      </c>
+      <c r="B196">
+        <v>1058.1199999999999</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="5"/>
+        <v>-0.64041166638497604</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="7"/>
+        <v>1982.6862539349424</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="8"/>
+        <v>992.77551556547985</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="10"/>
+        <v>-11.560000000000173</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>42958</v>
+      </c>
+      <c r="B197">
+        <v>1054.05</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="5"/>
+        <v>-0.38464446376591849</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="7"/>
+        <v>1975.0599610253339</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="8"/>
+        <v>988.95685950723373</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="10"/>
+        <v>-11.590000000000146</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>42961</v>
+      </c>
+      <c r="B198">
+        <v>1059.56</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="5"/>
+        <v>0.52274560030359007</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="7"/>
+        <v>1985.3845000749516</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="8"/>
+        <v>994.12658797920835</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="10"/>
+        <v>-10.980000000000018</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>42963</v>
+      </c>
+      <c r="B199">
+        <v>1061.69</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="5"/>
+        <v>0.20102684133037385</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="7"/>
+        <v>1989.3756558237149</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="8"/>
+        <v>996.12504925784833</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="10"/>
+        <v>-7.9900000000000091</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>42964</v>
+      </c>
+      <c r="B200">
+        <v>1057.75</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="5"/>
+        <v>-0.37110644350046196</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="7"/>
+        <v>1981.9929545795235</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="8"/>
+        <v>992.42836501473039</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="10"/>
+        <v>-8.4600000000000364</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>42965</v>
+      </c>
+      <c r="B201">
+        <v>1055.33</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="5"/>
+        <v>-0.22878752068069702</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="7"/>
+        <v>1977.4584020386749</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="8"/>
+        <v>990.15781276388122</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="10"/>
+        <v>-10.490000000000009</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>42968</v>
+      </c>
+      <c r="B202">
+        <v>1054.02</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="5"/>
+        <v>-0.12413178816104399</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="7"/>
+        <v>1975.0037475640836</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="8"/>
+        <v>988.92871216528113</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="10"/>
+        <v>-11.670000000000073</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>42969</v>
+      </c>
+      <c r="B203">
+        <v>1059.01</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="5"/>
+        <v>0.4734255516973121</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="7"/>
+        <v>1984.3539199520314</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="8"/>
+        <v>993.61055337674281</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="10"/>
+        <v>-8.9100000000000819</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>42970</v>
+      </c>
+      <c r="B204">
+        <v>1057.44</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="5"/>
+        <v>-0.14825166901161804</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="7"/>
+        <v>1981.4120821466049</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="8"/>
+        <v>992.13750914788613</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="10"/>
+        <v>-10.329999999999927</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>42972</v>
+      </c>
+      <c r="B205">
+        <v>1057.7</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="5"/>
+        <v>2.4587683461944971E-2</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="7"/>
+        <v>1981.8992654774397</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="8"/>
+        <v>992.3814527781426</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="10"/>
+        <v>-5.8599999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>42975</v>
+      </c>
+      <c r="B206">
+        <v>1054.96</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="5"/>
+        <v>-0.2590526614351904</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="7"/>
+        <v>1976.7651026832559</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="8"/>
+        <v>989.81066221313165</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="10"/>
+        <v>-7.5799999999999272</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>42976</v>
+      </c>
+      <c r="B207">
+        <v>1049.29</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="5"/>
+        <v>-0.53746113596724732</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="7"/>
+        <v>1966.1407585069705</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="8"/>
+        <v>984.49081458407602</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="10"/>
+        <v>-15.289999999999964</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>42977</v>
+      </c>
+      <c r="B208">
+        <v>1054.46</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="5"/>
+        <v>0.49271412097704859</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="7"/>
+        <v>1975.8282116624196</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="8"/>
+        <v>989.34153984725367</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="10"/>
+        <v>-7.3599999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>42978</v>
+      </c>
+      <c r="B209">
+        <v>1057</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="5"/>
+        <v>0.24088158868045859</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="7"/>
+        <v>1980.5876180482685</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="8"/>
+        <v>991.72468146591336</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="10"/>
+        <v>-5.0099999999999909</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>42979</v>
+      </c>
+      <c r="B210">
+        <v>1059.77</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="5"/>
+        <v>0.26206244087038616</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="7"/>
+        <v>1985.7779943037026</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="8"/>
+        <v>994.32361937287703</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="10"/>
+        <v>-6.6400000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="3"/>
+      <c r="C214" t="s">
         <v>5</v>
       </c>
-      <c r="D183" s="2">
-        <f>D180-D176</f>
-        <v>5.9586268925202148</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
+      <c r="D214" s="2">
+        <f>D207-D176</f>
+        <v>-33.859241493029458</v>
+      </c>
+      <c r="E214" s="2">
+        <f>E207-E183</f>
+        <v>-15.50918541592398</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="3"/>
+      <c r="C215" s="2">
+        <f>SUMIF(C2:C207,"&gt;0",C2:C207)</f>
+        <v>27.766296401778337</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="3"/>
+      <c r="C216">
+        <f>(B207-B2)*100/B2</f>
+        <v>5.7933315185061884</v>
+      </c>
+      <c r="D216" s="2">
+        <f>(D207-D176)/D176*100</f>
+        <v>-1.6929620746514729</v>
+      </c>
+      <c r="E216" s="2">
+        <f>(E207-E183)/E183*100</f>
+        <v>-1.5509185415923981</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="3"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="3"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="3"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="3"/>
+      <c r="B221" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="2">
-        <f>SUMIF(C2:C180,"&gt;0",C2:C180)</f>
-        <v>25.40332861032606</v>
-      </c>
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
         <v>4</v>
-      </c>
-      <c r="C185">
-        <f>(B180-B2)*100/B2</f>
-        <v>7.9358357783087747</v>
-      </c>
-      <c r="D185" s="2">
-        <f>(D180-D176)/D176*100</f>
-        <v>0.29793134462601073</v>
       </c>
     </row>
   </sheetData>
@@ -5192,19 +7553,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D262"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="D167" workbookViewId="0">
+      <selection activeCell="AA230" sqref="AA230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5214,8 +7575,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>42566</v>
       </c>
@@ -5223,7 +7590,7 @@
         <v>903.92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>42569</v>
       </c>
@@ -5235,7 +7602,7 @@
         <v>0.62948048499867848</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>42570</v>
       </c>
@@ -5247,7 +7614,7 @@
         <v>0.46173634854497331</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>42571</v>
       </c>
@@ -5259,7 +7626,7 @@
         <v>0.54934833280442275</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>42572</v>
       </c>
@@ -5271,7 +7638,7 @@
         <v>-2.5031833962758963E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>42573</v>
       </c>
@@ -5283,7 +7650,7 @@
         <v>-3.3747006313962456E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>42576</v>
       </c>
@@ -5295,7 +7662,7 @@
         <v>0.29729170523473175</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>42577</v>
       </c>
@@ -5307,7 +7674,7 @@
         <v>3.9087099085797668E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>42578</v>
       </c>
@@ -5319,7 +7686,7 @@
         <v>0.2615641754759131</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>42579</v>
       </c>
@@ -5331,7 +7698,7 @@
         <v>-0.27820175581029633</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>42580</v>
       </c>
@@ -5343,7 +7710,7 @@
         <v>4.8848266429292866E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>42583</v>
       </c>
@@ -5355,7 +7722,7 @@
         <v>-9.0053923855602042E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>42584</v>
       </c>
@@ -5367,7 +7734,7 @@
         <v>-0.20850527778985195</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>42585</v>
       </c>
@@ -5379,7 +7746,7 @@
         <v>-0.55391111304574048</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>42586</v>
       </c>
@@ -7535,7 +9902,7 @@
         <v>1134.23</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C257" si="3">(B195-B194)*100/B194</f>
+        <f t="shared" ref="C195:C258" si="3">(B195-B194)*100/B194</f>
         <v>0.21027521314662803</v>
       </c>
     </row>
@@ -8271,7 +10638,7 @@
         <v>0.38321820161765463</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>42935</v>
       </c>
@@ -8283,34 +10650,412 @@
         <v>0.409082628066054</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C260" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>42936</v>
+      </c>
+      <c r="B258">
+        <v>1217.8900000000001</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="3"/>
+        <v>0.44287929271270726</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>42937</v>
+      </c>
+      <c r="B259">
+        <v>1214.81</v>
+      </c>
+      <c r="C259">
+        <f t="shared" ref="C259:C287" si="4">(B259-B258)*100/B258</f>
+        <v>-0.25289640279501058</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>42940</v>
+      </c>
+      <c r="B260">
+        <v>1211.95</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="4"/>
+        <v>-0.23542776236612312</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>42941</v>
+      </c>
+      <c r="B261">
+        <v>1212.25</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="4"/>
+        <v>2.4753496431367178E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>42942</v>
+      </c>
+      <c r="B262">
+        <v>1214.6099999999999</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="4"/>
+        <v>0.19467931532273872</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>42943</v>
+      </c>
+      <c r="B263">
+        <v>1214</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="4"/>
+        <v>-5.0221881920937586E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>42944</v>
+      </c>
+      <c r="B264">
+        <v>1211.72</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="4"/>
+        <v>-0.18780889621087091</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>42947</v>
+      </c>
+      <c r="B265">
+        <v>1210.1600000000001</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="4"/>
+        <v>-0.128742613805165</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>42948</v>
+      </c>
+      <c r="B266">
+        <v>1213.43</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="4"/>
+        <v>0.27021220334501073</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>42949</v>
+      </c>
+      <c r="B267">
+        <v>1212.1099999999999</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="4"/>
+        <v>-0.10878254205023476</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>42950</v>
+      </c>
+      <c r="B268">
+        <v>1219.6500000000001</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="4"/>
+        <v>0.62205575401574043</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>42951</v>
+      </c>
+      <c r="B269">
+        <v>1220.77</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="4"/>
+        <v>9.1829623252563511E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>42954</v>
+      </c>
+      <c r="B270">
+        <v>1226.56</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="4"/>
+        <v>0.47429081645190851</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>42955</v>
+      </c>
+      <c r="B271">
+        <v>1239.32</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="4"/>
+        <v>1.0403078528567695</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>42956</v>
+      </c>
+      <c r="B272">
+        <v>1229.69</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="4"/>
+        <v>-0.77703902139882208</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>42957</v>
+      </c>
+      <c r="B273">
+        <v>1220.52</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="4"/>
+        <v>-0.74571640006831574</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>42958</v>
+      </c>
+      <c r="B274">
+        <v>1215.18</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="4"/>
+        <v>-0.43751843476550306</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>42961</v>
+      </c>
+      <c r="B275">
+        <v>1220.1300000000001</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="4"/>
+        <v>0.40734705969486373</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
+        <v>42963</v>
+      </c>
+      <c r="B276">
+        <v>1219.04</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="4"/>
+        <v>-8.9334743019198401E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <v>42964</v>
+      </c>
+      <c r="B277">
+        <v>1221.31</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="4"/>
+        <v>0.18621210132563179</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>42965</v>
+      </c>
+      <c r="B278">
+        <v>1217.28</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="4"/>
+        <v>-0.32997355298818259</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>42968</v>
+      </c>
+      <c r="B279">
+        <v>1220.26</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="4"/>
+        <v>0.2448080967402749</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>42969</v>
+      </c>
+      <c r="B280">
+        <v>1224.55</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="4"/>
+        <v>0.35156442069722549</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>42970</v>
+      </c>
+      <c r="B281">
+        <v>1225.29</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="4"/>
+        <v>6.0430362173860531E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>42972</v>
+      </c>
+      <c r="B282">
+        <v>1240.9100000000001</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="4"/>
+        <v>1.2748002513690733</v>
+      </c>
+      <c r="E282" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>42975</v>
+      </c>
+      <c r="B283">
+        <v>1245.72</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="4"/>
+        <v>0.38761876364925296</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>42976</v>
+      </c>
+      <c r="B284">
+        <v>1232.8699999999999</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="4"/>
+        <v>-1.0315319654497106</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>42977</v>
+      </c>
+      <c r="B285">
+        <v>1231.1600000000001</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="4"/>
+        <v>-0.13870075514854033</v>
+      </c>
+      <c r="E285">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>42978</v>
+      </c>
+      <c r="B286">
+        <v>1217.52</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="4"/>
+        <v>-1.1078982423080752</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>42979</v>
+      </c>
+      <c r="B287">
+        <v>1222.92</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="4"/>
+        <v>0.44352454169131439</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="3"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="3"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="3"/>
+      <c r="C290" t="s">
         <v>5</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D290" s="2">
         <f>D257-D253</f>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B261" t="s">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="3"/>
+      <c r="B291" t="s">
         <v>3</v>
       </c>
-      <c r="C261" s="2">
-        <f>SUMIF(C2:C257,"&gt;0",C2:C257)</f>
-        <v>62.909021950418619</v>
-      </c>
-      <c r="D261" s="2"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B262" t="s">
+      <c r="C291" s="2">
+        <f ca="1">SUMIF(C2:C284,"&gt;0",C2:C22)</f>
+        <v>68.982811360457617</v>
+      </c>
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="3"/>
+      <c r="B292" t="s">
         <v>4</v>
       </c>
-      <c r="C262">
-        <f>(B257-B2)*100/B2</f>
-        <v>34.140189397291799</v>
-      </c>
-      <c r="D262" s="2"/>
+      <c r="C292">
+        <f>(B284-B2)*100/B2</f>
+        <v>36.391494822550662</v>
+      </c>
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8336,5 +11081,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>